--- a/TRDV and TRGV Pair/All Tgd Clusters/diagnosis_summary_TRGV.xlsx
+++ b/TRDV and TRGV Pair/All Tgd Clusters/diagnosis_summary_TRGV.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,13 +396,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="E2">
-        <v>16.94</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="3">
@@ -420,10 +420,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="E3">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -438,13 +438,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D4">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="E4">
-        <v>29.13</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="5">
@@ -459,13 +459,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="E5">
-        <v>17.56</v>
+        <v>17.04</v>
       </c>
     </row>
     <row r="6">
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="E6">
-        <v>14.05</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="7">
@@ -501,13 +501,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="E7">
-        <v>10.95</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="E8">
-        <v>2.07</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="9">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D9">
-        <v>484</v>
+        <v>581</v>
       </c>
       <c r="E9">
-        <v>9.09</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="10">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="D10">
-        <v>1017</v>
+        <v>1805</v>
       </c>
       <c r="E10">
-        <v>11.11</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="11">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1017</v>
+        <v>1805</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>165</v>
+        <v>309</v>
       </c>
       <c r="D12">
-        <v>1017</v>
+        <v>1805</v>
       </c>
       <c r="E12">
-        <v>16.22</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="13">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="D13">
-        <v>1017</v>
+        <v>1805</v>
       </c>
       <c r="E13">
-        <v>13.08</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="14">
@@ -648,13 +648,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>299</v>
+        <v>440</v>
       </c>
       <c r="D14">
-        <v>1017</v>
+        <v>1805</v>
       </c>
       <c r="E14">
-        <v>29.4</v>
+        <v>24.38</v>
       </c>
     </row>
     <row r="15">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D15">
-        <v>1017</v>
+        <v>1805</v>
       </c>
       <c r="E15">
-        <v>7.08</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="16">
@@ -693,10 +693,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1017</v>
+        <v>1805</v>
       </c>
       <c r="E16">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="17">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C17">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="D17">
-        <v>1017</v>
+        <v>1805</v>
       </c>
       <c r="E17">
-        <v>8.949999999999999</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="18">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C18">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="D18">
-        <v>1017</v>
+        <v>1805</v>
       </c>
       <c r="E18">
-        <v>13.96</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="19">
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C19">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="D19">
-        <v>442</v>
+        <v>790</v>
       </c>
       <c r="E19">
-        <v>19.46</v>
+        <v>15.57</v>
       </c>
     </row>
     <row r="20">
@@ -770,17 +770,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRGV2</t>
+          <t>TRGV11</t>
         </is>
       </c>
       <c r="C20">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>442</v>
+        <v>790</v>
       </c>
       <c r="E20">
-        <v>19.46</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21">
@@ -791,17 +791,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRGV3</t>
+          <t>TRGV2</t>
         </is>
       </c>
       <c r="C21">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="D21">
-        <v>442</v>
+        <v>790</v>
       </c>
       <c r="E21">
-        <v>11.54</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="22">
@@ -812,17 +812,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRGV4</t>
+          <t>TRGV3</t>
         </is>
       </c>
       <c r="C22">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="D22">
-        <v>442</v>
+        <v>790</v>
       </c>
       <c r="E22">
-        <v>13.12</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="23">
@@ -833,17 +833,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRGV5</t>
+          <t>TRGV4</t>
         </is>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D23">
-        <v>442</v>
+        <v>790</v>
       </c>
       <c r="E23">
-        <v>7.69</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="24">
@@ -854,17 +854,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRGV5P</t>
+          <t>TRGV5</t>
         </is>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D24">
-        <v>442</v>
+        <v>790</v>
       </c>
       <c r="E24">
-        <v>0.23</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="25">
@@ -875,17 +875,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRGV8</t>
+          <t>TRGV5P</t>
         </is>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>442</v>
+        <v>790</v>
       </c>
       <c r="E25">
-        <v>8.6</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="26">
@@ -896,38 +896,38 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRGV9</t>
+          <t>TRGV8</t>
         </is>
       </c>
       <c r="C26">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D26">
-        <v>442</v>
+        <v>790</v>
       </c>
       <c r="E26">
-        <v>19.91</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RCD-II</t>
+          <t>RCD-I</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRGV10</t>
+          <t>TRGV9</t>
         </is>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>790</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="28">
@@ -938,17 +938,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRGV2</t>
+          <t>TRGV10</t>
         </is>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="29">
@@ -959,17 +959,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRGV3</t>
+          <t>TRGV2</t>
         </is>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E29">
-        <v>24</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="30">
@@ -980,17 +980,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRGV8</t>
+          <t>TRGV3</t>
         </is>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E30">
-        <v>58</v>
+        <v>37.88</v>
       </c>
     </row>
     <row r="31">
@@ -1001,17 +1001,80 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>TRGV4</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RCD-II</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>TRGV5</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>66</v>
+      </c>
+      <c r="E32">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RCD-II</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>TRGV8</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>66</v>
+      </c>
+      <c r="E33">
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RCD-II</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>TRGV9</t>
         </is>
       </c>
-      <c r="C31">
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="D31">
-        <v>50</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
+      <c r="D34">
+        <v>66</v>
+      </c>
+      <c r="E34">
+        <v>3.03</v>
       </c>
     </row>
   </sheetData>
